--- a/annual-reporting/data/pm10_exceedance_data.xlsx
+++ b/annual-reporting/data/pm10_exceedance_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasmandc-my.sharepoint.com/personal/matt_ogden_tasman_govt_nz/Documents/Desktop/Working/R/tdc-air/annual-reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104863E11E76B25BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC1F07B-3D44-4395-9872-351019B9BE6B}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104863E11E76B25BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CB2E96-E6D2-4850-A470-C195A80DAD44}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -400,24 +400,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -476,7 +477,7 @@
         <v>63.607500000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -502,7 +503,7 @@
         <v>51.592500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -528,7 +529,7 @@
         <v>51.887500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -554,7 +555,7 @@
         <v>43.680000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -583,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -612,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -641,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -670,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -705,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -740,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -775,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -810,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -845,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -880,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -915,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -950,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -985,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2021</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2022</v>
       </c>
@@ -1123,6 +1124,41 @@
       </c>
       <c r="K22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
